--- a/data/trans_orig/P80_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P80_R-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>7153</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3108</v>
+        <v>3008</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15531</v>
+        <v>14898</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01035592633944089</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004499429820310927</v>
+        <v>0.004354464503260993</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02248608362481675</v>
+        <v>0.02156888452182949</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>1596</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4555</v>
+        <v>4681</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002178136983990673</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0004812130239262482</v>
+        <v>0.0004914682194535699</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.006216167671526944</v>
+        <v>0.006388610883223525</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -783,19 +783,19 @@
         <v>8749</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4179</v>
+        <v>3975</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16801</v>
+        <v>16562</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006146348879833894</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002935602119307346</v>
+        <v>0.002792851943686643</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01180304871885898</v>
+        <v>0.01163540119742702</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>683557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>675179</v>
+        <v>675812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>687602</v>
+        <v>687702</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9896440736605591</v>
+        <v>0.9896440736605593</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9775139163751833</v>
+        <v>0.9784311154781706</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9955005701796892</v>
+        <v>0.9956455354967392</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1235</v>
@@ -833,19 +833,19 @@
         <v>731126</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>728167</v>
+        <v>728041</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>732369</v>
+        <v>732362</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9978218630160094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9937838323284742</v>
+        <v>0.9936113891167767</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9995187869760738</v>
+        <v>0.9995085317805463</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1958</v>
@@ -854,19 +854,19 @@
         <v>1414682</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1406630</v>
+        <v>1406869</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1419252</v>
+        <v>1419456</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9938536511201659</v>
+        <v>0.993853651120166</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9881969512811409</v>
+        <v>0.988364598802573</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9970643978806925</v>
+        <v>0.9972071480563133</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>19383</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10720</v>
+        <v>10180</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34887</v>
+        <v>35266</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01849169830266842</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01022722421573633</v>
+        <v>0.009711971360453035</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03328361130389241</v>
+        <v>0.03364473796589662</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -979,19 +979,19 @@
         <v>12801</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7355</v>
+        <v>7193</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21097</v>
+        <v>20261</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01198622735063171</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006886719276729367</v>
+        <v>0.00673478937229218</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01975389433586186</v>
+        <v>0.01897067644814528</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -1000,19 +1000,19 @@
         <v>32184</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21784</v>
+        <v>21584</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48168</v>
+        <v>51411</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0152084759248841</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01029389272052967</v>
+        <v>0.01019945483303102</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02276177518249412</v>
+        <v>0.02429423779668106</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1028800</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1013296</v>
+        <v>1012917</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1037463</v>
+        <v>1038003</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9815083016973316</v>
+        <v>0.9815083016973317</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9667163886961074</v>
+        <v>0.9663552620341035</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9897727757842637</v>
+        <v>0.990288028639547</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1494</v>
@@ -1050,19 +1050,19 @@
         <v>1055216</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1046920</v>
+        <v>1047756</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1060662</v>
+        <v>1060824</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9880137726493684</v>
+        <v>0.9880137726493686</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9802461056641381</v>
+        <v>0.9810293235518545</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9931132807232707</v>
+        <v>0.993265210627708</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2444</v>
@@ -1071,19 +1071,19 @@
         <v>2084016</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2068032</v>
+        <v>2064789</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2094416</v>
+        <v>2094616</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9847915240751159</v>
+        <v>0.9847915240751158</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9772382248175054</v>
+        <v>0.9757057622033193</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9897061072794705</v>
+        <v>0.9898005451669691</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>20407</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11092</v>
+        <v>10645</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37072</v>
+        <v>37974</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0254427536080861</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01382908839192494</v>
+        <v>0.01327198756793891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04621944023153505</v>
+        <v>0.04734453241081395</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1196,19 +1196,19 @@
         <v>14315</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7743</v>
+        <v>8029</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22855</v>
+        <v>24377</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01770543638335026</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009576351320585165</v>
+        <v>0.00992999191751142</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02826763609653319</v>
+        <v>0.03015051752904643</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -1217,19 +1217,19 @@
         <v>34722</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22937</v>
+        <v>22678</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54068</v>
+        <v>51847</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02155863159790903</v>
+        <v>0.02155863159790904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01424118599904626</v>
+        <v>0.01408049928926534</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03356978402215543</v>
+        <v>0.03219091547365201</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>781677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>765012</v>
+        <v>764110</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>790992</v>
+        <v>791439</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9745572463919139</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9537805597684649</v>
+        <v>0.952655467589186</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9861709116080751</v>
+        <v>0.9867280124320609</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1027</v>
@@ -1267,19 +1267,19 @@
         <v>794207</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>785667</v>
+        <v>784145</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>800779</v>
+        <v>800493</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9822945636166496</v>
+        <v>0.9822945636166498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9717323639034667</v>
+        <v>0.9698494824709535</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9904236486794148</v>
+        <v>0.9900700080824887</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1688</v>
@@ -1288,19 +1288,19 @@
         <v>1575883</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1556537</v>
+        <v>1558758</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1587668</v>
+        <v>1587927</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9784413684020908</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9664302159778447</v>
+        <v>0.9678090845263478</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9857588140009538</v>
+        <v>0.9859195007107346</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>32129</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21139</v>
+        <v>22101</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45988</v>
+        <v>47171</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03248819448845331</v>
+        <v>0.03248819448845332</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02137544877732287</v>
+        <v>0.0223483467663273</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04650211504137503</v>
+        <v>0.04769846813373262</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1413,19 +1413,19 @@
         <v>26413</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18447</v>
+        <v>16870</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37145</v>
+        <v>37018</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02363185113600414</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01650446967003211</v>
+        <v>0.01509363419425779</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03323388952694806</v>
+        <v>0.03312027518075226</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -1434,19 +1434,19 @@
         <v>58542</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45342</v>
+        <v>44803</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>75725</v>
+        <v>76570</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02778943309974165</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02152350891904383</v>
+        <v>0.02126757748384093</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03594629388377557</v>
+        <v>0.03634724911993671</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>956814</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>942955</v>
+        <v>941772</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>967804</v>
+        <v>966842</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9675118055115467</v>
+        <v>0.9675118055115468</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9534978849586251</v>
+        <v>0.9523015318662673</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.978624551222677</v>
+        <v>0.9776516532336726</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1529</v>
@@ -1484,19 +1484,19 @@
         <v>1091257</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1080525</v>
+        <v>1080652</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1099223</v>
+        <v>1100800</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9763681488639959</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9667661104730519</v>
+        <v>0.9668797248192478</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9834955303299681</v>
+        <v>0.9849063658057424</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2507</v>
@@ -1505,19 +1505,19 @@
         <v>2048071</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2030888</v>
+        <v>2030043</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2061271</v>
+        <v>2061810</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9722105669002584</v>
+        <v>0.9722105669002583</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9640537061162245</v>
+        <v>0.963652750880063</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9784764910809566</v>
+        <v>0.978732422516159</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>79072</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61299</v>
+        <v>60718</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>107396</v>
+        <v>104110</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02240045856737146</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0173654670732716</v>
+        <v>0.01720105046248395</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03042448393576092</v>
+        <v>0.02949355497304706</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -1630,19 +1630,19 @@
         <v>55125</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41873</v>
+        <v>41280</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70772</v>
+        <v>71606</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0147910740461344</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01123533471323783</v>
+        <v>0.01107604936178827</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01898947263148371</v>
+        <v>0.01921320309891753</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -1651,19 +1651,19 @@
         <v>134197</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>112698</v>
+        <v>111445</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>165387</v>
+        <v>163330</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01849247488919672</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01552988884242722</v>
+        <v>0.01535720644111731</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02279040271801209</v>
+        <v>0.0225069527405774</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3450847</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3422523</v>
+        <v>3425809</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3468620</v>
+        <v>3469201</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9775995414326285</v>
+        <v>0.9775995414326284</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9695755160642391</v>
+        <v>0.9705064450269529</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9826345329267283</v>
+        <v>0.982798949537516</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5285</v>
@@ -1701,19 +1701,19 @@
         <v>3671806</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3656159</v>
+        <v>3655325</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3685058</v>
+        <v>3685651</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9852089259538656</v>
+        <v>0.9852089259538657</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9810105273685163</v>
+        <v>0.9807867969010827</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9887646652867622</v>
+        <v>0.9889239506382119</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8597</v>
@@ -1722,19 +1722,19 @@
         <v>7122653</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7091463</v>
+        <v>7093520</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7144152</v>
+        <v>7145405</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9815075251108033</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9772095972819869</v>
+        <v>0.9774930472594223</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9844701111575729</v>
+        <v>0.9846427935588827</v>
       </c>
     </row>
     <row r="18">
